--- a/resources/inventory.xlsx
+++ b/resources/inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Erik\Persoonlijk\component-inventory\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Erik\Dropbox\component-inventory\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52C1DA6-5D1B-4762-8959-6A18E359184B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9E83AB-43D7-4B39-9A4E-526163E68C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-3040" windowWidth="25890" windowHeight="17190" xr2:uid="{7B4DE2BE-437B-4368-A10E-354E74019CAE}"/>
+    <workbookView xWindow="19090" yWindow="-5890" windowWidth="38620" windowHeight="21100" xr2:uid="{7B4DE2BE-437B-4368-A10E-354E74019CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Components" sheetId="1" r:id="rId1"/>
@@ -242,7 +242,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="401">
   <si>
     <t>Description</t>
   </si>
@@ -1439,6 +1439,12 @@
   </si>
   <si>
     <t>Seven darlington arrays; driver</t>
+  </si>
+  <si>
+    <t>L9110</t>
+  </si>
+  <si>
+    <t>Motor controller driver</t>
   </si>
 </sst>
 </file>
@@ -1663,8 +1669,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}" name="Table3" displayName="Table3" ref="A1:N181" totalsRowShown="0">
-  <autoFilter ref="A1:N181" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}" name="Table3" displayName="Table3" ref="A1:N182" totalsRowShown="0">
+  <autoFilter ref="A1:N182" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}"/>
   <tableColumns count="14">
     <tableColumn id="2" xr3:uid="{4DC12199-FF40-45B6-B436-8A468545B299}" name="ID" dataDxfId="13"/>
     <tableColumn id="1" xr3:uid="{C4F97701-1496-46B7-9BA9-0E2C3EE5AEE8}" name="Date entered" dataDxfId="12"/>
@@ -2005,11 +2011,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N181"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E176" sqref="E176"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D185" sqref="D185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7081,9 +7087,32 @@
         <v>392</v>
       </c>
     </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A182" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="B182" s="4">
+        <v>45931</v>
+      </c>
+      <c r="C182" s="11"/>
+      <c r="D182" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F182" s="11"/>
+      <c r="G182" s="9">
+        <v>10</v>
+      </c>
+      <c r="H182" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="I182" s="7"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J177:K1048576 I2:J181 L177:L178" xr:uid="{B545C138-3061-481A-AA4C-5D47CBE799A5}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J177:K1048576 I2:J182 L177:L178" xr:uid="{B545C138-3061-481A-AA4C-5D47CBE799A5}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>

--- a/resources/inventory.xlsx
+++ b/resources/inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Erik\Dropbox\component-inventory\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9E83AB-43D7-4B39-9A4E-526163E68C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AE319F-3076-443F-80BE-00FCDF34402D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-5890" windowWidth="38620" windowHeight="21100" xr2:uid="{7B4DE2BE-437B-4368-A10E-354E74019CAE}"/>
+    <workbookView xWindow="465" yWindow="15" windowWidth="19800" windowHeight="11760" xr2:uid="{7B4DE2BE-437B-4368-A10E-354E74019CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Components" sheetId="1" r:id="rId1"/>
@@ -242,7 +242,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="411">
   <si>
     <t>Description</t>
   </si>
@@ -1445,6 +1445,36 @@
   </si>
   <si>
     <t>Motor controller driver</t>
+  </si>
+  <si>
+    <t>Quadruple Half-H Motor Drivers</t>
+  </si>
+  <si>
+    <t>DIO16</t>
+  </si>
+  <si>
+    <t>MOTOR</t>
+  </si>
+  <si>
+    <t>L293</t>
+  </si>
+  <si>
+    <t>CD4093</t>
+  </si>
+  <si>
+    <t>Quad 2 input NAND Schmitt triggers</t>
+  </si>
+  <si>
+    <t>LM386</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Low Voltage Audio Power Amplifier</t>
+  </si>
+  <si>
+    <t>24C65</t>
+  </si>
+  <si>
+    <t>64K I2C Smart Serial EEPROM</t>
   </si>
 </sst>
 </file>
@@ -1669,8 +1699,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}" name="Table3" displayName="Table3" ref="A1:N182" totalsRowShown="0">
-  <autoFilter ref="A1:N182" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}" name="Table3" displayName="Table3" ref="A1:N186" totalsRowShown="0">
+  <autoFilter ref="A1:N186" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N185">
+    <sortCondition ref="A1:A185"/>
+  </sortState>
   <tableColumns count="14">
     <tableColumn id="2" xr3:uid="{4DC12199-FF40-45B6-B436-8A468545B299}" name="ID" dataDxfId="13"/>
     <tableColumn id="1" xr3:uid="{C4F97701-1496-46B7-9BA9-0E2C3EE5AEE8}" name="Date entered" dataDxfId="12"/>
@@ -2011,33 +2044,33 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N182"/>
+  <dimension ref="A1:N186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D185" sqref="D185"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="65.88671875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="65.85546875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="5" customWidth="1"/>
     <col min="10" max="10" width="9" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" style="11" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="59.109375" style="11" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="2"/>
+    <col min="11" max="11" width="8.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="59.140625" style="11" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>377</v>
       </c>
@@ -2081,7 +2114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>74</v>
       </c>
@@ -2107,7 +2140,7 @@
       <c r="I2" s="7"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>44</v>
       </c>
@@ -2136,7 +2169,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>92</v>
       </c>
@@ -2165,7 +2198,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>62</v>
       </c>
@@ -2194,7 +2227,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>112</v>
       </c>
@@ -2220,7 +2253,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>308</v>
       </c>
@@ -2242,7 +2275,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>359</v>
       </c>
@@ -2273,7 +2306,7 @@
         <v>HC00</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>367</v>
       </c>
@@ -2301,7 +2334,7 @@
         <v>HC02</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>300</v>
       </c>
@@ -2331,7 +2364,7 @@
         <v>HC04</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>353</v>
       </c>
@@ -2359,7 +2392,7 @@
         <v>HC06</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>304</v>
       </c>
@@ -2389,7 +2422,7 @@
         <v>HC08</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>299</v>
       </c>
@@ -2419,7 +2452,7 @@
         <v>HC10</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>311</v>
       </c>
@@ -2449,7 +2482,7 @@
         <v>HC11</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>331</v>
       </c>
@@ -2483,7 +2516,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>338</v>
       </c>
@@ -2511,7 +2544,7 @@
         <v>HC132</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>285</v>
       </c>
@@ -2541,7 +2574,7 @@
         <v>HC14</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>327</v>
       </c>
@@ -2571,7 +2604,7 @@
         <v>HC151</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>361</v>
       </c>
@@ -2599,7 +2632,7 @@
         <v>HC153</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>365</v>
       </c>
@@ -2627,7 +2660,7 @@
         <v>HC161</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>319</v>
       </c>
@@ -2660,7 +2693,7 @@
         <v>HC162</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>317</v>
       </c>
@@ -2690,7 +2723,7 @@
         <v>HC163</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>294</v>
       </c>
@@ -2720,7 +2753,7 @@
         <v>HC165</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>350</v>
       </c>
@@ -2748,7 +2781,7 @@
         <v>HC174</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>369</v>
       </c>
@@ -2776,7 +2809,7 @@
         <v>HC175</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>355</v>
       </c>
@@ -2804,7 +2837,7 @@
         <v>HC192</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>296</v>
       </c>
@@ -2834,7 +2867,7 @@
         <v>HC194</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>283</v>
       </c>
@@ -2864,7 +2897,7 @@
         <v>HC20</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>289</v>
       </c>
@@ -2894,7 +2927,7 @@
         <v>HC21</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>335</v>
       </c>
@@ -2925,7 +2958,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>302</v>
       </c>
@@ -2955,7 +2988,7 @@
         <v>HC240</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>357</v>
       </c>
@@ -2983,7 +3016,7 @@
         <v>HC244</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>326</v>
       </c>
@@ -3015,7 +3048,7 @@
         <v>HC245</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>329</v>
       </c>
@@ -3048,7 +3081,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>352</v>
       </c>
@@ -3076,7 +3109,7 @@
         <v>HC27</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>323</v>
       </c>
@@ -3106,7 +3139,7 @@
         <v>HC273</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>321</v>
       </c>
@@ -3136,7 +3169,7 @@
         <v>HC30</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>363</v>
       </c>
@@ -3164,7 +3197,7 @@
         <v>HC32</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>297</v>
       </c>
@@ -3197,7 +3230,7 @@
         <v>HC373</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>269</v>
       </c>
@@ -3227,7 +3260,7 @@
         <v>HC374N</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>208</v>
       </c>
@@ -3257,7 +3290,7 @@
         <v>HC4051</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>246</v>
       </c>
@@ -3289,7 +3322,7 @@
         <v>HC4316</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>238</v>
       </c>
@@ -3324,7 +3357,7 @@
         <v>HC74N</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>315</v>
       </c>
@@ -3354,7 +3387,7 @@
         <v>HC85</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>292</v>
       </c>
@@ -3384,7 +3417,7 @@
         <v>HC86</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>274</v>
       </c>
@@ -3406,7 +3439,7 @@
       <c r="I46" s="7"/>
       <c r="J46" s="9"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>250</v>
       </c>
@@ -3430,7 +3463,7 @@
       </c>
       <c r="J47" s="9"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>205</v>
       </c>
@@ -3456,7 +3489,7 @@
       </c>
       <c r="J48" s="9"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>214</v>
       </c>
@@ -3484,7 +3517,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>4</v>
       </c>
@@ -3507,7 +3540,7 @@
       <c r="I50" s="7"/>
       <c r="J50" s="9"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>233</v>
       </c>
@@ -3533,7 +3566,7 @@
       <c r="I51" s="7"/>
       <c r="J51" s="9"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>229</v>
       </c>
@@ -3559,7 +3592,7 @@
       <c r="I52" s="7"/>
       <c r="J52" s="9"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>231</v>
       </c>
@@ -3585,7 +3618,7 @@
       <c r="I53" s="7"/>
       <c r="J53" s="9"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>66</v>
       </c>
@@ -3611,7 +3644,7 @@
       <c r="I54" s="7"/>
       <c r="J54" s="9"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>153</v>
       </c>
@@ -3637,7 +3670,7 @@
       <c r="I55" s="7"/>
       <c r="J55" s="9"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>199</v>
       </c>
@@ -3663,7 +3696,7 @@
       <c r="I56" s="7"/>
       <c r="J56" s="9"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>123</v>
       </c>
@@ -3689,7 +3722,7 @@
       <c r="I57" s="7"/>
       <c r="J57" s="9"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>36</v>
       </c>
@@ -3715,7 +3748,7 @@
       <c r="I58" s="7"/>
       <c r="J58" s="9"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>228</v>
       </c>
@@ -3741,7 +3774,7 @@
       <c r="I59" s="7"/>
       <c r="J59" s="9"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>155</v>
       </c>
@@ -3767,7 +3800,7 @@
       <c r="I60" s="7"/>
       <c r="J60" s="9"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>176</v>
       </c>
@@ -3793,7 +3826,7 @@
       <c r="I61" s="7"/>
       <c r="J61" s="9"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>118</v>
       </c>
@@ -3819,92 +3852,97 @@
       <c r="I62" s="7"/>
       <c r="J62" s="9"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>242</v>
+        <v>383</v>
       </c>
       <c r="B63" s="4">
-        <v>45608</v>
+        <v>45616</v>
       </c>
       <c r="C63" s="11"/>
-      <c r="D63" t="s">
-        <v>243</v>
+      <c r="D63" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="F63" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G63" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H63" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="I63" s="7"/>
-      <c r="J63" s="9"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G63" s="9">
+        <v>4</v>
+      </c>
+      <c r="H63" s="5"/>
+      <c r="I63" s="7">
+        <v>1</v>
+      </c>
+      <c r="M63" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="N63" s="11" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="B64" s="4">
-        <v>45607</v>
+        <v>45608</v>
       </c>
       <c r="C64" s="11"/>
-      <c r="D64" s="2" t="s">
-        <v>117</v>
+      <c r="D64" t="s">
+        <v>243</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="F64" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G64" s="9">
-        <v>6</v>
-      </c>
-      <c r="H64" s="5"/>
+      <c r="G64" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H64" s="5">
+        <v>0.25</v>
+      </c>
       <c r="I64" s="7"/>
       <c r="J64" s="9"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="B65" s="4">
-        <v>45602</v>
+        <v>45607</v>
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="2" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F65" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G65" s="9">
-        <v>20</v>
-      </c>
-      <c r="H65" s="5">
-        <v>0.8</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H65" s="5"/>
       <c r="I65" s="7"/>
       <c r="J65" s="9"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="B66" s="4">
-        <v>45607</v>
+        <v>45602</v>
       </c>
       <c r="C66" s="11"/>
       <c r="D66" s="2" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>71</v>
@@ -3913,50 +3951,50 @@
         <v>33</v>
       </c>
       <c r="G66" s="9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H66" s="5">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="9"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>133</v>
+        <v>197</v>
       </c>
       <c r="B67" s="4">
-        <v>45590</v>
+        <v>45607</v>
       </c>
       <c r="C67" s="11"/>
       <c r="D67" s="2" t="s">
-        <v>135</v>
+        <v>198</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="F67" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G67" s="9" t="s">
-        <v>28</v>
+      <c r="G67" s="9">
+        <v>19</v>
       </c>
       <c r="H67" s="5">
-        <v>6</v>
+        <v>0.75</v>
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="9"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B68" s="4">
-        <v>45602</v>
+        <v>45590</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>134</v>
@@ -3964,80 +4002,80 @@
       <c r="F68" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G68" s="9">
-        <v>25</v>
-      </c>
-      <c r="H68" s="5"/>
-      <c r="I68" s="7">
-        <v>1</v>
-      </c>
+      <c r="G68" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H68" s="5">
+        <v>6</v>
+      </c>
+      <c r="I68" s="7"/>
       <c r="J68" s="9"/>
-      <c r="N68" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="B69" s="4">
-        <v>45607</v>
+        <v>45602</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="2" t="s">
-        <v>183</v>
+        <v>137</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="F69" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G69" s="9">
-        <v>15</v>
-      </c>
-      <c r="H69" s="5">
+        <v>25</v>
+      </c>
+      <c r="H69" s="5"/>
+      <c r="I69" s="7">
         <v>1</v>
       </c>
-      <c r="I69" s="7"/>
       <c r="J69" s="9"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N69" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="B70" s="4">
-        <v>45588</v>
+        <v>45607</v>
       </c>
       <c r="C70" s="11"/>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F70" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G70" s="9">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H70" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" s="7"/>
       <c r="J70" s="9"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="B71" s="4">
-        <v>45586</v>
+        <v>45588</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="2" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>68</v>
@@ -4046,219 +4084,214 @@
         <v>33</v>
       </c>
       <c r="G71" s="9">
+        <v>18</v>
+      </c>
+      <c r="H71" s="5">
         <v>2</v>
-      </c>
-      <c r="H71" s="5">
-        <v>1</v>
       </c>
       <c r="I71" s="7"/>
       <c r="J71" s="9"/>
-      <c r="M71" s="11" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="B72" s="4">
-        <v>45588</v>
+        <v>45586</v>
       </c>
       <c r="C72" s="11"/>
-      <c r="D72" t="s">
-        <v>90</v>
+      <c r="D72" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="F72" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G72" s="9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H72" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" s="7"/>
       <c r="J72" s="9"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M72" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="B73" s="4">
-        <v>45607</v>
+        <v>45588</v>
       </c>
       <c r="C73" s="11"/>
-      <c r="D73" s="2" t="s">
-        <v>181</v>
+      <c r="D73" t="s">
+        <v>90</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="F73" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G73" s="9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H73" s="5">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="9"/>
-      <c r="M73" s="11" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="B74" s="4">
         <v>45607</v>
       </c>
       <c r="C74" s="11"/>
       <c r="D74" s="2" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="F74" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G74" s="9">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="H74" s="5">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="I74" s="7"/>
       <c r="J74" s="9"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M74" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B75" s="4">
-        <v>45602</v>
+        <v>45607</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="2" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="F75" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G75" s="9">
+        <v>23</v>
+      </c>
+      <c r="H75" s="5">
+        <v>4</v>
+      </c>
+      <c r="I75" s="7"/>
+      <c r="J75" s="9"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B76" s="4">
+        <v>45602</v>
+      </c>
+      <c r="C76" s="11"/>
+      <c r="D76" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G76" s="9">
         <v>17</v>
       </c>
-      <c r="H75" s="5"/>
-      <c r="I75" s="7">
+      <c r="H76" s="5"/>
+      <c r="I76" s="7">
         <v>1</v>
       </c>
-      <c r="J75" s="9"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A76" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="B76" s="4">
-        <v>45607</v>
-      </c>
-      <c r="C76" s="11"/>
-      <c r="D76" t="s">
-        <v>207</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F76" s="11"/>
-      <c r="G76" s="9">
-        <v>24</v>
-      </c>
-      <c r="H76" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="I76" s="7"/>
       <c r="J76" s="9"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>158</v>
+        <v>405</v>
       </c>
       <c r="B77" s="4">
-        <v>45607</v>
+        <v>45973</v>
       </c>
       <c r="C77" s="11"/>
       <c r="D77" s="2" t="s">
-        <v>159</v>
+        <v>406</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="11" t="s">
-        <v>160</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F77" s="11"/>
       <c r="G77" s="9">
-        <v>8</v>
-      </c>
-      <c r="H77" s="5">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H77" s="5"/>
       <c r="I77" s="7"/>
-      <c r="J77" s="9"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="B78" s="4">
-        <v>45588</v>
+        <v>45607</v>
       </c>
       <c r="C78" s="11"/>
-      <c r="D78" s="2" t="s">
-        <v>83</v>
+      <c r="D78" t="s">
+        <v>207</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>160</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F78" s="11"/>
       <c r="G78" s="9">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H78" s="5">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="I78" s="7"/>
       <c r="J78" s="9"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>234</v>
+        <v>158</v>
       </c>
       <c r="B79" s="4">
-        <v>45608</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>395</v>
-      </c>
+        <v>45607</v>
+      </c>
+      <c r="C79" s="11"/>
       <c r="D79" s="2" t="s">
-        <v>235</v>
+        <v>159</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="G79" s="9">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H79" s="5">
         <v>1</v>
@@ -4266,76 +4299,78 @@
       <c r="I79" s="7"/>
       <c r="J79" s="9"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="B80" s="4">
-        <v>45608</v>
+        <v>45588</v>
       </c>
       <c r="C80" s="11"/>
       <c r="D80" s="2" t="s">
-        <v>219</v>
+        <v>83</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F80" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="G80" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H80" s="5">
-        <v>25</v>
+        <v>0.2</v>
       </c>
       <c r="I80" s="7"/>
       <c r="J80" s="9"/>
-      <c r="L80" s="11" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B81" s="4">
         <v>45608</v>
       </c>
-      <c r="C81" s="11"/>
+      <c r="C81" s="11" t="s">
+        <v>395</v>
+      </c>
       <c r="D81" s="2" t="s">
-        <v>225</v>
+        <v>235</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F81" s="11"/>
       <c r="G81" s="9">
-        <v>2</v>
-      </c>
-      <c r="H81" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="H81" s="5">
+        <v>1</v>
+      </c>
       <c r="I81" s="7"/>
-      <c r="J81" s="9">
-        <v>0</v>
-      </c>
-      <c r="L81" s="11" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J81" s="9"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="B82" s="4">
-        <v>45609</v>
+        <v>45608</v>
       </c>
       <c r="C82" s="11"/>
       <c r="D82" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>33</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F82" s="11"/>
       <c r="G82" s="9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H82" s="5">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I82" s="7"/>
       <c r="J82" s="9"/>
@@ -4343,1510 +4378,1505 @@
         <v>386</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B83" s="4">
+        <v>45608</v>
+      </c>
+      <c r="C83" s="11"/>
+      <c r="D83" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F83" s="11"/>
+      <c r="G83" s="9">
+        <v>2</v>
+      </c>
+      <c r="H83" s="5"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="9">
+        <v>0</v>
+      </c>
+      <c r="L83" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B84" s="4">
+        <v>45609</v>
+      </c>
+      <c r="C84" s="11"/>
+      <c r="D84" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G84" s="9">
+        <v>9</v>
+      </c>
+      <c r="H84" s="5">
+        <v>2</v>
+      </c>
+      <c r="I84" s="7"/>
+      <c r="J84" s="9"/>
+      <c r="L84" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B85" s="4">
         <v>45590</v>
       </c>
-      <c r="C83" s="11" t="str">
+      <c r="C85" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF4001</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D85" t="s">
         <v>128</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E85" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F83" s="11" t="s">
+      <c r="F85" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G83" s="9">
+      <c r="G85" s="9">
         <v>8</v>
       </c>
-      <c r="H83" s="5">
+      <c r="H85" s="5">
         <v>0.3</v>
       </c>
-      <c r="I83" s="7"/>
-      <c r="J83" s="9"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A84" s="11" t="s">
+      <c r="I85" s="7"/>
+      <c r="J85" s="9"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B86" s="4">
         <v>45588</v>
       </c>
-      <c r="C84" s="11" t="str">
+      <c r="C86" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF4002</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D86" t="s">
         <v>109</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F84" s="11" t="s">
+      <c r="F86" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G84" s="9">
+      <c r="G86" s="9">
         <v>10</v>
       </c>
-      <c r="H84" s="5">
+      <c r="H86" s="5">
         <v>0.6</v>
       </c>
-      <c r="I84" s="7"/>
-      <c r="J84" s="9"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="11" t="s">
+      <c r="I86" s="7"/>
+      <c r="J86" s="9"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B87" s="4">
         <v>45607</v>
       </c>
-      <c r="C85" s="11" t="str">
+      <c r="C87" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF4008</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E87" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F85" s="11" t="s">
+      <c r="F87" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G85" s="9">
+      <c r="G87" s="9">
         <v>9</v>
       </c>
-      <c r="H85" s="5">
+      <c r="H87" s="5">
         <v>0.7</v>
       </c>
-      <c r="I85" s="7"/>
-      <c r="J85" s="9"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A86" s="11" t="s">
+      <c r="I87" s="7"/>
+      <c r="J87" s="9"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B88" s="4">
         <v>45584</v>
       </c>
-      <c r="C86" s="11" t="str">
+      <c r="C88" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF40098</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E88" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F86" s="11" t="s">
+      <c r="F88" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G86" s="9">
+      <c r="G88" s="9">
         <v>8</v>
       </c>
-      <c r="H86" s="5">
+      <c r="H88" s="5">
         <v>1.4</v>
       </c>
-      <c r="I86" s="7"/>
-      <c r="J86" s="9"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A87" s="11" t="s">
+      <c r="I88" s="7"/>
+      <c r="J88" s="9"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B89" s="4">
         <v>45586</v>
       </c>
-      <c r="C87" s="11" t="str">
+      <c r="C89" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF40106</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D89" t="s">
         <v>49</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E89" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F87" s="11" t="s">
+      <c r="F89" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G87" s="9">
+      <c r="G89" s="9">
         <v>7</v>
       </c>
-      <c r="H87" s="5">
+      <c r="H89" s="5">
         <v>0.3</v>
       </c>
-      <c r="I87" s="7"/>
-      <c r="J87" s="9"/>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" s="11" t="s">
+      <c r="I89" s="7"/>
+      <c r="J89" s="9"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B90" s="4">
         <v>45586</v>
       </c>
-      <c r="C88" s="11" t="str">
+      <c r="C90" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF4011</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E90" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F88" s="11" t="s">
+      <c r="F90" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G88" s="9">
+      <c r="G90" s="9">
         <v>9</v>
       </c>
-      <c r="H88" s="5">
+      <c r="H90" s="5">
         <v>0.8</v>
       </c>
-      <c r="I88" s="7"/>
-      <c r="J88" s="9"/>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="11" t="s">
+      <c r="I90" s="7"/>
+      <c r="J90" s="9"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B91" s="4">
         <v>45586</v>
       </c>
-      <c r="C89" s="11" t="str">
+      <c r="C91" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF4013</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E91" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F89" s="11" t="s">
+      <c r="F91" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G89" s="9">
+      <c r="G91" s="9">
         <v>10</v>
       </c>
-      <c r="H89" s="5">
+      <c r="H91" s="5">
         <v>2</v>
       </c>
-      <c r="I89" s="7"/>
-      <c r="J89" s="9"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A90" s="11" t="s">
+      <c r="I91" s="7"/>
+      <c r="J91" s="9"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B92" s="4">
         <v>45588</v>
       </c>
-      <c r="C90" s="11" t="str">
+      <c r="C92" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF4015</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D92" t="s">
         <v>87</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E92" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F90" s="11" t="s">
+      <c r="F92" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G90" s="9">
+      <c r="G92" s="9">
         <v>7</v>
       </c>
-      <c r="H90" s="5">
+      <c r="H92" s="5">
         <v>0.5</v>
       </c>
-      <c r="I90" s="7"/>
-      <c r="J90" s="9"/>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A91" s="11" t="s">
+      <c r="I92" s="7"/>
+      <c r="J92" s="9"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B93" s="4">
         <v>45588</v>
       </c>
-      <c r="C91" s="11" t="str">
+      <c r="C93" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF4016</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D93" t="s">
         <v>99</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E93" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F91" s="11" t="s">
+      <c r="F93" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G91" s="9">
+      <c r="G93" s="9">
         <v>6</v>
       </c>
-      <c r="H91" s="5">
+      <c r="H93" s="5">
         <v>0.2</v>
       </c>
-      <c r="I91" s="7"/>
-      <c r="J91" s="9"/>
-      <c r="N91" s="11" t="s">
+      <c r="I93" s="7"/>
+      <c r="J93" s="9"/>
+      <c r="N93" s="11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" s="11" t="s">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B94" s="4">
         <v>45588</v>
       </c>
-      <c r="C92" s="11" t="str">
+      <c r="C94" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF4017</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D94" t="s">
         <v>107</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E94" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F92" s="11" t="s">
+      <c r="F94" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G92" s="9">
+      <c r="G94" s="9">
         <v>1</v>
       </c>
-      <c r="H92" s="5">
+      <c r="H94" s="5">
         <v>0.5</v>
       </c>
-      <c r="I92" s="7"/>
-      <c r="J92" s="9"/>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="11" t="s">
+      <c r="I94" s="7"/>
+      <c r="J94" s="9"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B95" s="4">
         <v>45588</v>
       </c>
-      <c r="C93" s="11" t="str">
+      <c r="C95" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF40192</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D95" t="s">
         <v>115</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E95" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F93" s="11" t="s">
+      <c r="F95" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G93" s="9">
+      <c r="G95" s="9">
         <v>8</v>
       </c>
-      <c r="H93" s="5">
+      <c r="H95" s="5">
         <v>1</v>
       </c>
-      <c r="I93" s="7"/>
-      <c r="J93" s="9"/>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="11" t="s">
+      <c r="I95" s="7"/>
+      <c r="J95" s="9"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B96" s="4">
         <v>45609</v>
       </c>
-      <c r="C94" s="11" t="str">
+      <c r="C96" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF40193</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E96" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F94" s="11" t="s">
+      <c r="F96" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G94" s="9">
+      <c r="G96" s="9">
         <v>21</v>
       </c>
-      <c r="H94" s="5">
+      <c r="H96" s="5">
         <v>0.6</v>
       </c>
-      <c r="I94" s="7"/>
-      <c r="J94" s="9"/>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="11" t="s">
+      <c r="I96" s="7"/>
+      <c r="J96" s="9"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B97" s="4">
         <v>45607</v>
       </c>
-      <c r="C95" s="11" t="str">
+      <c r="C97" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF40194</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D97" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F95" s="11" t="s">
+      <c r="F97" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G95" s="9">
+      <c r="G97" s="9">
         <v>7</v>
       </c>
-      <c r="H95" s="5">
+      <c r="H97" s="5">
         <v>1.5</v>
       </c>
-      <c r="I95" s="7"/>
-      <c r="J95" s="9"/>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A96" s="11" t="s">
+      <c r="I97" s="7"/>
+      <c r="J97" s="9"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B98" s="4">
         <v>45602</v>
       </c>
-      <c r="C96" s="11" t="str">
+      <c r="C98" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF4019</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D98" t="s">
         <v>150</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E98" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F96" s="11" t="s">
+      <c r="F98" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G96" s="9">
+      <c r="G98" s="9">
         <v>10</v>
       </c>
-      <c r="H96" s="5">
+      <c r="H98" s="5">
         <v>0.5</v>
       </c>
-      <c r="I96" s="7"/>
-      <c r="J96" s="9"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A97" s="11" t="s">
+      <c r="I98" s="7"/>
+      <c r="J98" s="9"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B99" s="4">
         <v>45607</v>
       </c>
-      <c r="C97" s="11" t="str">
+      <c r="C99" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF4021</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D99" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E99" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F97" s="11" t="s">
+      <c r="F99" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G97" s="9">
+      <c r="G99" s="9">
         <v>8</v>
       </c>
-      <c r="H97" s="5">
+      <c r="H99" s="5">
         <v>1.25</v>
       </c>
-      <c r="I97" s="7"/>
-      <c r="J97" s="9"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A98" s="11" t="s">
+      <c r="I99" s="7"/>
+      <c r="J99" s="9"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B100" s="4">
         <v>45586</v>
       </c>
-      <c r="C98" s="11" t="str">
+      <c r="C100" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF4022</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E100" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F98" s="11" t="s">
+      <c r="F100" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G98" s="9">
+      <c r="G100" s="9">
         <v>6</v>
       </c>
-      <c r="H98" s="5">
+      <c r="H100" s="5">
         <v>6</v>
       </c>
-      <c r="I98" s="7"/>
-      <c r="J98" s="9"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A99" s="11" t="s">
+      <c r="I100" s="7"/>
+      <c r="J100" s="9"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B101" s="4">
         <v>45586</v>
       </c>
-      <c r="C99" s="11" t="str">
+      <c r="C101" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF4023</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E101" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F99" s="11" t="s">
+      <c r="F101" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G99" s="9">
+      <c r="G101" s="9">
         <v>10</v>
       </c>
-      <c r="H99" s="5">
+      <c r="H101" s="5">
         <v>0.5</v>
       </c>
-      <c r="I99" s="7"/>
-      <c r="J99" s="9"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A100" s="11" t="s">
+      <c r="I101" s="7"/>
+      <c r="J101" s="9"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B102" s="4">
         <v>45588</v>
       </c>
-      <c r="C100" s="11" t="str">
+      <c r="C102" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF4025</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E102" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F100" s="11" t="s">
+      <c r="F102" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G100" s="9">
+      <c r="G102" s="9">
         <v>8</v>
       </c>
-      <c r="H100" s="5">
+      <c r="H102" s="5">
         <v>1</v>
       </c>
-      <c r="I100" s="7"/>
-      <c r="J100" s="9"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A101" s="11" t="s">
+      <c r="I102" s="7"/>
+      <c r="J102" s="9"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B103" s="4">
         <v>45588</v>
       </c>
-      <c r="C101" s="11" t="str">
+      <c r="C103" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF4027</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E103" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F101" s="11" t="s">
+      <c r="F103" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G101" s="9">
+      <c r="G103" s="9">
         <v>6</v>
       </c>
-      <c r="H101" s="5">
+      <c r="H103" s="5">
         <v>0.4</v>
       </c>
-      <c r="I101" s="7">
+      <c r="I103" s="7">
         <v>1</v>
       </c>
-      <c r="J101" s="9"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A102" s="11" t="s">
+      <c r="J103" s="9"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B104" s="4">
         <v>45588</v>
       </c>
-      <c r="C102" s="11" t="str">
+      <c r="C104" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF4028</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D104" t="s">
         <v>111</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E104" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F102" s="11" t="s">
+      <c r="F104" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G102" s="9">
+      <c r="G104" s="9">
         <v>10</v>
       </c>
-      <c r="H102" s="5">
+      <c r="H104" s="5">
         <v>1</v>
       </c>
-      <c r="I102" s="7"/>
-      <c r="J102" s="9"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A103" s="11" t="s">
+      <c r="I104" s="7"/>
+      <c r="J104" s="9"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B105" s="4">
         <v>45588</v>
       </c>
-      <c r="C103" s="11" t="str">
+      <c r="C105" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF4030</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D105" t="s">
         <v>121</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="E105" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F103" s="11" t="s">
+      <c r="F105" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G103" s="9">
+      <c r="G105" s="9">
         <v>10</v>
       </c>
-      <c r="H103" s="5">
+      <c r="H105" s="5">
         <v>0.5</v>
       </c>
-      <c r="I103" s="7"/>
-      <c r="J103" s="9"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A104" s="11" t="s">
+      <c r="I105" s="7"/>
+      <c r="J105" s="9"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B106" s="4">
         <v>45602</v>
       </c>
-      <c r="C104" s="11" t="str">
+      <c r="C106" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF4035</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E106" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F104" s="11" t="s">
+      <c r="F106" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G104" s="9">
+      <c r="G106" s="9">
         <v>10</v>
       </c>
-      <c r="H104" s="5"/>
-      <c r="I104" s="7">
+      <c r="H106" s="5"/>
+      <c r="I106" s="7">
         <v>1</v>
       </c>
-      <c r="J104" s="9"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A105" s="11" t="s">
+      <c r="J106" s="9"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B107" s="4">
         <v>45588</v>
       </c>
-      <c r="C105" s="11" t="str">
+      <c r="C107" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF40374</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D107" t="s">
         <v>102</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E107" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F105" s="11" t="s">
+      <c r="F107" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G105" s="9">
+      <c r="G107" s="9">
         <v>6</v>
       </c>
-      <c r="H105" s="5">
+      <c r="H107" s="5">
         <v>1.8</v>
       </c>
-      <c r="I105" s="7"/>
-      <c r="J105" s="9"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="11" t="s">
+      <c r="I107" s="7"/>
+      <c r="J107" s="9"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B108" s="4">
         <v>45586</v>
       </c>
-      <c r="C106" s="11" t="str">
+      <c r="C108" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF4040</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D108" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E108" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F106" s="11" t="s">
+      <c r="F108" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G106" s="9">
+      <c r="G108" s="9">
         <v>9</v>
       </c>
-      <c r="H106" s="5">
+      <c r="H108" s="5">
         <v>2</v>
       </c>
-      <c r="I106" s="7"/>
-      <c r="J106" s="9"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A107" s="11" t="s">
+      <c r="I108" s="7"/>
+      <c r="J108" s="9"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B109" s="4">
         <v>45586</v>
       </c>
-      <c r="C107" s="11" t="str">
+      <c r="C109" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF4040</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="E109" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F107" s="11" t="s">
+      <c r="F109" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G107" s="9">
+      <c r="G109" s="9">
         <v>8</v>
       </c>
-      <c r="H107" s="5">
+      <c r="H109" s="5">
         <v>1</v>
       </c>
-      <c r="I107" s="7"/>
-      <c r="J107" s="9"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A108" s="11" t="s">
+      <c r="I109" s="7"/>
+      <c r="J109" s="9"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B110" s="4">
         <v>45607</v>
       </c>
-      <c r="C108" s="11" t="str">
+      <c r="C110" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF4041</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D110" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E110" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F108" s="11" t="s">
+      <c r="F110" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G108" s="9">
+      <c r="G110" s="9">
         <v>9</v>
       </c>
-      <c r="H108" s="5">
+      <c r="H110" s="5">
         <v>0.5</v>
       </c>
-      <c r="I108" s="7"/>
-      <c r="J108" s="9"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A109" s="11" t="s">
+      <c r="I110" s="7"/>
+      <c r="J110" s="9"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B111" s="4">
         <v>45607</v>
       </c>
-      <c r="C109" s="11" t="str">
+      <c r="C111" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF4046</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D111" t="s">
         <v>213</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="E111" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F109" s="11" t="s">
+      <c r="F111" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G109" s="9">
+      <c r="G111" s="9">
         <f>27</f>
         <v>27</v>
       </c>
-      <c r="H109" s="5">
+      <c r="H111" s="5">
         <v>0.5</v>
       </c>
-      <c r="I109" s="7"/>
-      <c r="J109" s="9"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A110" s="11" t="s">
+      <c r="I111" s="7"/>
+      <c r="J111" s="9"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B112" s="4">
         <v>45586</v>
       </c>
-      <c r="C110" s="11" t="str">
+      <c r="C112" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF4047</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D112" t="s">
         <v>47</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="E112" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F110" s="11" t="s">
+      <c r="F112" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G110" s="9">
+      <c r="G112" s="9">
         <f>7+35</f>
         <v>42</v>
       </c>
-      <c r="H110" s="5">
+      <c r="H112" s="5">
         <v>0.3</v>
       </c>
-      <c r="I110" s="7"/>
-      <c r="J110" s="9"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A111" s="11" t="s">
+      <c r="I112" s="7"/>
+      <c r="J112" s="9"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B113" s="4">
         <v>45586</v>
       </c>
-      <c r="C111" s="11" t="str">
+      <c r="C113" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF4049</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="E113" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F111" s="11" t="s">
+      <c r="F113" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G111" s="9">
+      <c r="G113" s="9">
         <v>10</v>
       </c>
-      <c r="H111" s="5">
+      <c r="H113" s="5">
         <v>0.5</v>
       </c>
-      <c r="I111" s="7"/>
-      <c r="J111" s="9"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A112" s="11" t="s">
+      <c r="I113" s="7"/>
+      <c r="J113" s="9"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B114" s="4">
         <v>45602</v>
       </c>
-      <c r="C112" s="11" t="str">
+      <c r="C114" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF4050</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E114" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F112" s="11" t="s">
+      <c r="F114" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G112" s="9">
+      <c r="G114" s="9">
         <v>4</v>
       </c>
-      <c r="H112" s="5">
+      <c r="H114" s="5">
         <v>0.4</v>
       </c>
-      <c r="I112" s="7"/>
-      <c r="J112" s="9"/>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A113" s="11" t="s">
+      <c r="I114" s="7"/>
+      <c r="J114" s="9"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B115" s="4">
         <v>45602</v>
       </c>
-      <c r="C113" s="11" t="str">
+      <c r="C115" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF4051</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D115" t="s">
         <v>152</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="E115" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F113" s="11" t="s">
+      <c r="F115" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G113" s="9">
+      <c r="G115" s="9">
         <v>35</v>
       </c>
-      <c r="H113" s="5">
+      <c r="H115" s="5">
         <v>0.5</v>
       </c>
-      <c r="I113" s="7"/>
-      <c r="J113" s="9"/>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A114" s="11" t="s">
+      <c r="I115" s="7"/>
+      <c r="J115" s="9"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B116" s="4">
         <v>45602</v>
       </c>
-      <c r="C114" s="11" t="str">
+      <c r="C116" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF4053</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D116" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E116" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F114" s="11" t="s">
+      <c r="F116" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G114" s="9">
+      <c r="G116" s="9">
         <f>8+29</f>
         <v>37</v>
       </c>
-      <c r="H114" s="5">
+      <c r="H116" s="5">
         <v>0.3</v>
       </c>
-      <c r="I114" s="7"/>
-      <c r="J114" s="9"/>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A115" s="11" t="s">
+      <c r="I116" s="7"/>
+      <c r="J116" s="9"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B117" s="4">
         <v>45590</v>
       </c>
-      <c r="C115" s="11" t="str">
+      <c r="C117" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF4066</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D117" t="s">
         <v>130</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E117" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F115" s="11" t="s">
+      <c r="F117" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G115" s="9">
+      <c r="G117" s="9">
         <v>5</v>
       </c>
-      <c r="H115" s="5">
+      <c r="H117" s="5">
         <v>0.4</v>
       </c>
-      <c r="I115" s="7"/>
-      <c r="J115" s="9"/>
-      <c r="N115" s="11" t="s">
+      <c r="I117" s="7"/>
+      <c r="J117" s="9"/>
+      <c r="N117" s="11" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A116" s="11" t="s">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B118" s="4">
         <v>45590</v>
       </c>
-      <c r="C116" s="11" t="str">
+      <c r="C118" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF4071</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D118" t="s">
         <v>125</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="E118" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F116" s="11" t="s">
+      <c r="F118" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G116" s="9">
+      <c r="G118" s="9">
         <v>8</v>
       </c>
-      <c r="H116" s="5">
+      <c r="H118" s="5">
         <v>0.4</v>
       </c>
-      <c r="I116" s="7"/>
-      <c r="J116" s="9"/>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A117" s="11" t="s">
+      <c r="I118" s="7"/>
+      <c r="J118" s="9"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B119" s="4">
         <v>45584</v>
       </c>
-      <c r="C117" s="11" t="str">
+      <c r="C119" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF4077</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D119" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="E119" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F117" s="11" t="s">
+      <c r="F119" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G117" s="9">
+      <c r="G119" s="9">
         <v>7</v>
       </c>
-      <c r="H117" s="5">
+      <c r="H119" s="5">
         <v>0.5</v>
       </c>
-      <c r="I117" s="7"/>
-      <c r="J117" s="9"/>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A118" s="11" t="s">
+      <c r="I119" s="7"/>
+      <c r="J119" s="9"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B120" s="4">
         <v>45584</v>
       </c>
-      <c r="C118" s="11" t="str">
+      <c r="C120" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF4104</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D120" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="E120" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F118" s="11" t="s">
+      <c r="F120" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G118" s="9">
+      <c r="G120" s="9">
         <v>10</v>
       </c>
-      <c r="H118" s="5">
+      <c r="H120" s="5">
         <v>5</v>
       </c>
-      <c r="I118" s="7"/>
-      <c r="J118" s="9"/>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A119" s="11" t="s">
+      <c r="I120" s="7"/>
+      <c r="J120" s="9"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B121" s="4">
         <v>45586</v>
       </c>
-      <c r="C119" s="11" t="str">
+      <c r="C121" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF4510</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D121" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="E121" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F119" s="11" t="s">
+      <c r="F121" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G119" s="9">
+      <c r="G121" s="9">
         <v>9</v>
       </c>
-      <c r="H119" s="5">
+      <c r="H121" s="5">
         <v>1.4</v>
       </c>
-      <c r="I119" s="7"/>
-      <c r="J119" s="9"/>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A120" s="11" t="s">
+      <c r="I121" s="7"/>
+      <c r="J121" s="9"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B122" s="4">
         <v>45586</v>
       </c>
-      <c r="C120" s="11" t="str">
+      <c r="C122" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF4512</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D122" t="s">
         <v>30</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="E122" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F120" s="11" t="s">
+      <c r="F122" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G120" s="9">
+      <c r="G122" s="9">
         <v>10</v>
       </c>
-      <c r="H120" s="5">
+      <c r="H122" s="5">
         <v>1</v>
       </c>
-      <c r="I120" s="7"/>
-      <c r="J120" s="9"/>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A121" s="11" t="s">
+      <c r="I122" s="7"/>
+      <c r="J122" s="9"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="B121" s="4">
+      <c r="B123" s="4">
         <v>45607</v>
       </c>
-      <c r="C121" s="11" t="str">
+      <c r="C123" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF4518</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D123" t="s">
         <v>179</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="E123" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F121" s="11" t="s">
+      <c r="F123" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G121" s="9">
+      <c r="G123" s="9">
         <v>7</v>
       </c>
-      <c r="H121" s="5">
+      <c r="H123" s="5">
         <v>0.7</v>
       </c>
-      <c r="I121" s="7"/>
-      <c r="J121" s="9"/>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A122" s="11" t="s">
+      <c r="I123" s="7"/>
+      <c r="J123" s="9"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B124" s="4">
         <v>45607</v>
       </c>
-      <c r="C122" s="11" t="str">
+      <c r="C124" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF45415</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D124" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="E124" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F122" s="11" t="s">
+      <c r="F124" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G122" s="9">
+      <c r="G124" s="9">
         <v>5</v>
       </c>
-      <c r="H122" s="5">
+      <c r="H124" s="5">
         <v>2</v>
       </c>
-      <c r="I122" s="7"/>
-      <c r="J122" s="9"/>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A123" s="11" t="s">
+      <c r="I124" s="7"/>
+      <c r="J124" s="9"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B125" s="4">
         <v>45607</v>
       </c>
-      <c r="C123" s="11" t="str">
+      <c r="C125" s="11" t="str">
         <f>LEFT(Table3[[#This Row],[ID]],LEN(Table3[[#This Row],[ID]]) - 1)</f>
         <v>HEF4543</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="D125" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="E125" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F123" s="11" t="s">
+      <c r="F125" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G123" s="9">
+      <c r="G125" s="9">
         <v>10</v>
       </c>
-      <c r="H123" s="5">
+      <c r="H125" s="5">
         <v>0.4</v>
-      </c>
-      <c r="I123" s="7"/>
-      <c r="J123" s="9"/>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A124" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="B124" s="4">
-        <v>45607</v>
-      </c>
-      <c r="C124" s="11"/>
-      <c r="D124" t="s">
-        <v>196</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F124" s="11"/>
-      <c r="G124" s="9">
-        <v>4</v>
-      </c>
-      <c r="H124" s="5">
-        <v>1</v>
-      </c>
-      <c r="I124" s="7"/>
-      <c r="J124" s="9"/>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A125" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="B125" s="4">
-        <v>45609</v>
-      </c>
-      <c r="C125" s="11"/>
-      <c r="D125" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F125" s="11"/>
-      <c r="G125" s="9">
-        <v>5</v>
-      </c>
-      <c r="H125" s="5">
-        <v>5</v>
       </c>
       <c r="I125" s="7"/>
       <c r="J125" s="9"/>
-      <c r="L125" s="11" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="B126" s="4">
+        <v>45607</v>
+      </c>
+      <c r="C126" s="11"/>
+      <c r="D126" t="s">
+        <v>196</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" s="11"/>
+      <c r="G126" s="9">
+        <v>4</v>
+      </c>
+      <c r="H126" s="5">
+        <v>1</v>
+      </c>
+      <c r="I126" s="7"/>
+      <c r="J126" s="9"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A127" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B127" s="4">
         <v>45609</v>
-      </c>
-      <c r="C126" s="11"/>
-      <c r="D126" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="F126" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G126" s="9">
-        <v>1</v>
-      </c>
-      <c r="H126" s="5"/>
-      <c r="I126" s="7">
-        <v>1</v>
-      </c>
-      <c r="J126" s="9"/>
-      <c r="L126" s="11" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A127" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="B127" s="4">
-        <v>45608</v>
       </c>
       <c r="C127" s="11"/>
       <c r="D127" s="2" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="F127" s="11"/>
       <c r="G127" s="9">
-        <v>3</v>
-      </c>
-      <c r="H127" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="H127" s="5">
+        <v>5</v>
+      </c>
       <c r="I127" s="7"/>
-      <c r="J127" s="9">
-        <v>0</v>
-      </c>
+      <c r="J127" s="9"/>
       <c r="L127" s="11" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B128" s="4">
         <v>45609</v>
       </c>
       <c r="C128" s="11"/>
       <c r="D128" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="F128" s="11"/>
+        <v>262</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F128" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="G128" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H128" s="5"/>
       <c r="I128" s="7">
         <v>1</v>
       </c>
-      <c r="J128" s="9">
-        <v>0</v>
-      </c>
+      <c r="J128" s="9"/>
       <c r="L128" s="11" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="B129" s="4">
-        <v>45609</v>
+        <v>45608</v>
       </c>
       <c r="C129" s="11"/>
       <c r="D129" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F129" s="11" t="s">
-        <v>35</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="F129" s="11"/>
       <c r="G129" s="9">
-        <v>9</v>
-      </c>
-      <c r="H129" s="5">
-        <v>25</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H129" s="5"/>
       <c r="I129" s="7"/>
-      <c r="J129" s="9"/>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J129" s="9">
+        <v>0</v>
+      </c>
+      <c r="L129" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>103</v>
+        <v>404</v>
       </c>
       <c r="B130" s="4">
-        <v>45588</v>
+        <v>45973</v>
       </c>
       <c r="C130" s="11"/>
       <c r="D130" t="s">
-        <v>104</v>
+        <v>401</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>105</v>
+        <v>402</v>
       </c>
       <c r="F130" s="11" t="s">
-        <v>33</v>
+        <v>403</v>
       </c>
       <c r="G130" s="9">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="H130" s="5"/>
-      <c r="I130" s="7">
-        <v>1</v>
-      </c>
-      <c r="J130" s="9"/>
-      <c r="L130" s="11" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I130" s="7"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>34</v>
+        <v>399</v>
       </c>
       <c r="B131" s="4">
-        <v>45586</v>
+        <v>45931</v>
       </c>
       <c r="C131" s="11"/>
       <c r="D131" s="2" t="s">
-        <v>7</v>
+        <v>400</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>35</v>
+        <v>403</v>
       </c>
       <c r="G131" s="9">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H131" s="5">
-        <v>20</v>
+        <v>0.35</v>
       </c>
       <c r="I131" s="7"/>
-      <c r="J131" s="9"/>
-      <c r="M131" s="11" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="B132" s="4">
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="C132" s="11"/>
-      <c r="D132" t="s">
-        <v>249</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>27</v>
+      <c r="D132" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="F132" s="11"/>
       <c r="G132" s="9">
-        <v>24</v>
-      </c>
-      <c r="H132" s="5">
-        <v>2</v>
-      </c>
-      <c r="I132" s="7"/>
-      <c r="J132" s="9"/>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="H132" s="5"/>
+      <c r="I132" s="7">
+        <v>1</v>
+      </c>
+      <c r="J132" s="9">
+        <v>0</v>
+      </c>
+      <c r="L132" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>43</v>
+        <v>280</v>
       </c>
       <c r="B133" s="4">
-        <v>45586</v>
+        <v>45609</v>
       </c>
       <c r="C133" s="11"/>
       <c r="D133" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F133" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="F133" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="G133" s="9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H133" s="5">
-        <v>0.4</v>
+        <v>25</v>
       </c>
       <c r="I133" s="7"/>
       <c r="J133" s="9"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="B134" s="4">
+        <v>45588</v>
+      </c>
+      <c r="C134" s="11"/>
+      <c r="D134" t="s">
+        <v>104</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G134" s="9">
+        <v>17</v>
+      </c>
+      <c r="H134" s="5"/>
+      <c r="I134" s="7">
+        <v>1</v>
+      </c>
+      <c r="J134" s="9"/>
+      <c r="L134" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A135" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B135" s="4">
         <v>45586</v>
       </c>
-      <c r="C134" s="11"/>
-      <c r="D134" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F134" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G134" s="9">
-        <v>5</v>
-      </c>
-      <c r="H134" s="5">
-        <v>1</v>
-      </c>
-      <c r="I134" s="7"/>
-      <c r="J134" s="9"/>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A135" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B135" s="4">
-        <v>45588</v>
-      </c>
       <c r="C135" s="11"/>
-      <c r="D135" t="s">
-        <v>77</v>
+      <c r="D135" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F135" s="11" t="s">
         <v>35</v>
       </c>
       <c r="G135" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H135" s="5">
-        <v>0.35</v>
+        <v>20</v>
       </c>
       <c r="I135" s="7"/>
       <c r="J135" s="9"/>
@@ -5854,471 +5884,456 @@
         <v>379</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
-        <v>310</v>
+        <v>248</v>
       </c>
       <c r="B136" s="4">
-        <v>45602</v>
+        <v>45608</v>
       </c>
       <c r="C136" s="11"/>
-      <c r="D136" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F136" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="D136" t="s">
+        <v>249</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F136" s="11"/>
       <c r="G136" s="9">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="H136" s="5">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="I136" s="7"/>
       <c r="J136" s="9"/>
-      <c r="L136" s="11" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B137" s="4">
-        <v>45584</v>
+        <v>45586</v>
       </c>
       <c r="C137" s="11"/>
       <c r="D137" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F137" s="11"/>
       <c r="G137" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H137" s="5">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="I137" s="7"/>
       <c r="J137" s="9"/>
-      <c r="N137" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="B138" s="4">
-        <v>45607</v>
+        <v>45586</v>
       </c>
       <c r="C138" s="11"/>
-      <c r="D138" t="s">
-        <v>173</v>
+      <c r="D138" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F138" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G138" s="9">
+        <v>5</v>
+      </c>
+      <c r="H138" s="5">
         <v>1</v>
-      </c>
-      <c r="H138" s="5">
-        <v>0.2</v>
       </c>
       <c r="I138" s="7"/>
       <c r="J138" s="9"/>
-      <c r="M138" s="11" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="B139" s="4">
-        <v>45607</v>
+        <v>45588</v>
       </c>
       <c r="C139" s="11"/>
-      <c r="D139" s="2" t="s">
-        <v>185</v>
+      <c r="D139" t="s">
+        <v>77</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F139" s="11"/>
+      <c r="F139" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="G139" s="9">
-        <v>7</v>
-      </c>
-      <c r="H139" s="5"/>
-      <c r="I139" s="7">
         <v>1</v>
       </c>
+      <c r="H139" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="I139" s="7"/>
       <c r="J139" s="9"/>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M139" s="11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>169</v>
+        <v>310</v>
       </c>
       <c r="B140" s="4">
-        <v>45607</v>
+        <v>45602</v>
       </c>
       <c r="C140" s="11"/>
       <c r="D140" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="F140" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G140" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H140" s="5">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="I140" s="7"/>
       <c r="J140" s="9"/>
-      <c r="M140" s="11" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L140" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>78</v>
+        <v>407</v>
       </c>
       <c r="B141" s="4">
-        <v>45588</v>
+        <v>45973</v>
       </c>
       <c r="C141" s="11"/>
-      <c r="D141" t="s">
-        <v>79</v>
+      <c r="D141" s="4" t="s">
+        <v>408</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F141" s="11" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F141" s="11"/>
       <c r="G141" s="9">
-        <v>6</v>
-      </c>
-      <c r="H141" s="5">
-        <v>1.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H141" s="5"/>
       <c r="I141" s="7"/>
-      <c r="J141" s="9"/>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>203</v>
+        <v>16</v>
       </c>
       <c r="B142" s="4">
-        <v>45607</v>
+        <v>45584</v>
       </c>
       <c r="C142" s="11"/>
-      <c r="D142" t="s">
-        <v>204</v>
+      <c r="D142" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F142" s="11" t="s">
-        <v>33</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F142" s="11"/>
       <c r="G142" s="9">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="H142" s="5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I142" s="7"/>
       <c r="J142" s="9"/>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N142" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>334</v>
+        <v>172</v>
       </c>
       <c r="B143" s="4">
-        <v>45612</v>
+        <v>45607</v>
       </c>
       <c r="C143" s="11"/>
-      <c r="D143" s="2" t="s">
-        <v>117</v>
+      <c r="D143" t="s">
+        <v>173</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F143" s="11"/>
+        <v>27</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="G143" s="9">
-        <v>13</v>
-      </c>
-      <c r="H143" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="H143" s="5">
+        <v>0.2</v>
+      </c>
       <c r="I143" s="7"/>
       <c r="J143" s="9"/>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M143" s="11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
-        <v>278</v>
+        <v>184</v>
       </c>
       <c r="B144" s="4">
-        <v>45609</v>
+        <v>45607</v>
       </c>
       <c r="C144" s="11"/>
       <c r="D144" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F144" s="11"/>
+      <c r="G144" s="9">
         <v>7</v>
       </c>
-      <c r="E144" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F144" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G144" s="9">
-        <v>6</v>
-      </c>
-      <c r="H144" s="5">
-        <v>5</v>
-      </c>
-      <c r="I144" s="7"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="7">
+        <v>1</v>
+      </c>
       <c r="J144" s="9"/>
-      <c r="M144" s="11" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>313</v>
+        <v>169</v>
       </c>
       <c r="B145" s="4">
-        <v>45610</v>
+        <v>45607</v>
       </c>
       <c r="C145" s="11"/>
       <c r="D145" s="2" t="s">
-        <v>314</v>
+        <v>7</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F145" s="11"/>
+      <c r="F145" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="G145" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H145" s="5">
-        <v>10</v>
+        <v>0.8</v>
       </c>
       <c r="I145" s="7"/>
       <c r="J145" s="9"/>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M145" s="11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
-        <v>281</v>
+        <v>78</v>
       </c>
       <c r="B146" s="4">
-        <v>45609</v>
+        <v>45588</v>
       </c>
       <c r="C146" s="11"/>
-      <c r="D146" s="2" t="s">
-        <v>282</v>
+      <c r="D146" t="s">
+        <v>79</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F146" s="11"/>
+        <v>68</v>
+      </c>
+      <c r="F146" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="G146" s="9">
-        <v>3</v>
-      </c>
-      <c r="H146" s="5"/>
-      <c r="I146" s="7">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H146" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="I146" s="7"/>
       <c r="J146" s="9"/>
-      <c r="L146" s="11" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B147" s="4">
         <v>45607</v>
       </c>
       <c r="C147" s="11"/>
-      <c r="D147" s="2" t="s">
-        <v>210</v>
+      <c r="D147" t="s">
+        <v>204</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F147" s="11"/>
+        <v>68</v>
+      </c>
+      <c r="F147" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="G147" s="9">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H147" s="5">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="I147" s="7"/>
       <c r="J147" s="9"/>
-      <c r="N147" s="11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
-        <v>236</v>
+        <v>334</v>
       </c>
       <c r="B148" s="4">
-        <v>45608</v>
+        <v>45612</v>
       </c>
       <c r="C148" s="11"/>
       <c r="D148" s="2" t="s">
-        <v>237</v>
+        <v>117</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F148" s="11" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F148" s="11"/>
       <c r="G148" s="9">
-        <v>8</v>
-      </c>
-      <c r="H148" s="5">
-        <v>0.4</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H148" s="5"/>
       <c r="I148" s="7"/>
       <c r="J148" s="9"/>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="B149" s="4">
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="C149" s="11"/>
       <c r="D149" s="2" t="s">
-        <v>223</v>
+        <v>7</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F149" s="11" t="s">
         <v>35</v>
       </c>
       <c r="G149" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H149" s="5">
-        <v>4</v>
-      </c>
-      <c r="I149" s="7">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I149" s="7"/>
       <c r="J149" s="9"/>
       <c r="M149" s="11" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
-        <v>201</v>
+        <v>313</v>
       </c>
       <c r="B150" s="4">
-        <v>45607</v>
+        <v>45610</v>
       </c>
       <c r="C150" s="11"/>
-      <c r="D150" t="s">
-        <v>202</v>
+      <c r="D150" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F150" s="11" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F150" s="11"/>
       <c r="G150" s="9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H150" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I150" s="7"/>
       <c r="J150" s="9"/>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="B151" s="4">
-        <v>45588</v>
+        <v>45609</v>
       </c>
       <c r="C151" s="11"/>
-      <c r="D151" t="s">
-        <v>81</v>
+      <c r="D151" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F151" s="11" t="s">
-        <v>33</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="F151" s="11"/>
       <c r="G151" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H151" s="5"/>
-      <c r="I151" s="7"/>
+      <c r="I151" s="7">
+        <v>1</v>
+      </c>
       <c r="J151" s="9"/>
-      <c r="M151" s="11" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A152" s="4" t="s">
-        <v>258</v>
+      <c r="L151" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A152" s="11" t="s">
+        <v>209</v>
       </c>
       <c r="B152" s="4">
-        <v>45609</v>
-      </c>
-      <c r="C152" s="4"/>
+        <v>45607</v>
+      </c>
+      <c r="C152" s="11"/>
       <c r="D152" s="2" t="s">
-        <v>7</v>
+        <v>210</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F152" s="11" t="s">
-        <v>35</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F152" s="11"/>
       <c r="G152" s="9">
-        <v>5</v>
-      </c>
-      <c r="H152" s="5"/>
-      <c r="I152" s="7">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H152" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="I152" s="7"/>
       <c r="J152" s="9"/>
-      <c r="M152" s="11" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N152" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
-        <v>26</v>
+        <v>236</v>
       </c>
       <c r="B153" s="4">
-        <v>45586</v>
+        <v>45608</v>
       </c>
       <c r="C153" s="11"/>
       <c r="D153" s="2" t="s">
-        <v>7</v>
+        <v>237</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>27</v>
@@ -6326,25 +6341,25 @@
       <c r="F153" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G153" s="9" t="s">
-        <v>28</v>
+      <c r="G153" s="9">
+        <v>8</v>
       </c>
       <c r="H153" s="5">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="I153" s="7"/>
       <c r="J153" s="9"/>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="B154" s="4">
-        <v>45609</v>
+        <v>45608</v>
       </c>
       <c r="C154" s="11"/>
       <c r="D154" s="2" t="s">
-        <v>7</v>
+        <v>223</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>15</v>
@@ -6353,766 +6368,874 @@
         <v>35</v>
       </c>
       <c r="G154" s="9">
-        <v>9</v>
-      </c>
-      <c r="H154" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="H154" s="5">
+        <v>4</v>
+      </c>
       <c r="I154" s="7">
         <v>1</v>
       </c>
       <c r="J154" s="9"/>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M154" s="11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
-        <v>116</v>
+        <v>201</v>
       </c>
       <c r="B155" s="4">
+        <v>45607</v>
+      </c>
+      <c r="C155" s="11"/>
+      <c r="D155" t="s">
+        <v>202</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F155" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G155" s="9">
+        <v>7</v>
+      </c>
+      <c r="H155" s="5">
+        <v>1</v>
+      </c>
+      <c r="I155" s="7"/>
+      <c r="J155" s="9"/>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A156" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B156" s="4">
         <v>45588</v>
       </c>
-      <c r="C155" s="11"/>
-      <c r="D155" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F155" s="11"/>
-      <c r="G155" s="9">
-        <v>10</v>
-      </c>
-      <c r="H155" s="5">
-        <v>15</v>
-      </c>
-      <c r="I155" s="7"/>
-      <c r="J155" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A156" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="B156" s="4">
-        <v>45609</v>
-      </c>
       <c r="C156" s="11"/>
-      <c r="D156" s="2" t="s">
-        <v>256</v>
+      <c r="D156" t="s">
+        <v>81</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F156" s="11"/>
+        <v>67</v>
+      </c>
+      <c r="F156" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="G156" s="9">
-        <v>1</v>
-      </c>
-      <c r="H156" s="5">
-        <v>12</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H156" s="5"/>
       <c r="I156" s="7"/>
       <c r="J156" s="9"/>
-      <c r="L156" s="11" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A157" s="11" t="s">
-        <v>306</v>
+      <c r="M156" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="B157" s="4">
         <v>45609</v>
       </c>
-      <c r="C157" s="11"/>
+      <c r="C157" s="4"/>
       <c r="D157" s="2" t="s">
-        <v>307</v>
+        <v>7</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F157" s="11"/>
+        <v>27</v>
+      </c>
+      <c r="F157" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="G157" s="9">
-        <v>12</v>
-      </c>
-      <c r="H157" s="5">
+        <v>5</v>
+      </c>
+      <c r="H157" s="5"/>
+      <c r="I157" s="7">
         <v>1</v>
       </c>
-      <c r="I157" s="7"/>
       <c r="J157" s="9"/>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M157" s="11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
-        <v>272</v>
+        <v>26</v>
       </c>
       <c r="B158" s="4">
-        <v>45609</v>
+        <v>45586</v>
       </c>
       <c r="C158" s="11"/>
       <c r="D158" s="2" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F158" s="11"/>
-      <c r="G158" s="9">
-        <v>13</v>
-      </c>
-      <c r="H158" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="F158" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G158" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H158" s="5">
+        <v>1</v>
+      </c>
       <c r="I158" s="7"/>
-      <c r="J158" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J158" s="9"/>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
-        <v>84</v>
+        <v>390</v>
       </c>
       <c r="B159" s="4">
-        <v>45588</v>
+        <v>45616</v>
       </c>
       <c r="C159" s="11"/>
-      <c r="D159" t="s">
-        <v>86</v>
+      <c r="D159" s="2" t="s">
+        <v>391</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F159" s="11" t="s">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="G159" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H159" s="5">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I159" s="7"/>
-      <c r="J159" s="9"/>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L159" s="11" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="B160" s="4">
         <v>45609</v>
       </c>
       <c r="C160" s="11"/>
       <c r="D160" s="2" t="s">
-        <v>291</v>
+        <v>7</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F160" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G160" s="9" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="G160" s="9">
+        <v>9</v>
       </c>
       <c r="H160" s="5"/>
-      <c r="I160" s="7"/>
+      <c r="I160" s="7">
+        <v>1</v>
+      </c>
       <c r="J160" s="9"/>
-      <c r="K160" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="B161" s="4">
-        <v>45607</v>
-      </c>
-      <c r="C161" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="D161" t="s">
-        <v>194</v>
+        <v>45588</v>
+      </c>
+      <c r="C161" s="11"/>
+      <c r="D161" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="F161" s="11"/>
       <c r="G161" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H161" s="5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I161" s="7"/>
-      <c r="J161" s="9"/>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A162" s="4" t="s">
-        <v>6</v>
+      <c r="J161" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162" s="11" t="s">
+        <v>393</v>
       </c>
       <c r="B162" s="4">
-        <v>45584</v>
-      </c>
-      <c r="C162" s="4"/>
+        <v>45616</v>
+      </c>
+      <c r="C162" s="11"/>
       <c r="D162" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>14</v>
+        <v>394</v>
       </c>
       <c r="F162" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G162" s="9">
-        <v>4</v>
+        <v>160</v>
+      </c>
+      <c r="G162" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="H162" s="5">
-        <v>3</v>
-      </c>
-      <c r="I162" s="7">
-        <v>1</v>
-      </c>
-      <c r="J162" s="9"/>
-      <c r="M162" s="11" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.2</v>
+      </c>
+      <c r="I162" s="7"/>
+      <c r="L162" s="11" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
-        <v>342</v>
+        <v>255</v>
       </c>
       <c r="B163" s="4">
-        <v>45612</v>
+        <v>45609</v>
       </c>
       <c r="C163" s="11"/>
       <c r="D163" s="2" t="s">
-        <v>343</v>
+        <v>256</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>13</v>
+        <v>257</v>
       </c>
       <c r="F163" s="11"/>
       <c r="G163" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H163" s="5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I163" s="7"/>
       <c r="J163" s="9"/>
-      <c r="M163" s="11" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L163" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
-        <v>348</v>
+        <v>306</v>
       </c>
       <c r="B164" s="4">
-        <v>45612</v>
+        <v>45609</v>
       </c>
       <c r="C164" s="11"/>
       <c r="D164" s="2" t="s">
-        <v>349</v>
+        <v>307</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F164" s="11"/>
       <c r="G164" s="9">
+        <v>12</v>
+      </c>
+      <c r="H164" s="5">
         <v>1</v>
-      </c>
-      <c r="H164" s="5">
-        <v>3</v>
       </c>
       <c r="I164" s="7"/>
       <c r="J164" s="9"/>
-      <c r="M164" s="11" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
-        <v>346</v>
+        <v>272</v>
       </c>
       <c r="B165" s="4">
-        <v>45612</v>
+        <v>45609</v>
       </c>
       <c r="C165" s="11"/>
       <c r="D165" s="2" t="s">
-        <v>347</v>
+        <v>117</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F165" s="11"/>
       <c r="G165" s="9">
-        <v>3</v>
-      </c>
-      <c r="H165" s="5">
-        <v>3</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H165" s="5"/>
       <c r="I165" s="7"/>
-      <c r="J165" s="9"/>
-      <c r="M165" s="11" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J165" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
-        <v>344</v>
+        <v>84</v>
       </c>
       <c r="B166" s="4">
-        <v>45612</v>
+        <v>45588</v>
       </c>
       <c r="C166" s="11"/>
-      <c r="D166" s="2" t="s">
-        <v>345</v>
+      <c r="D166" t="s">
+        <v>86</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F166" s="11"/>
+        <v>15</v>
+      </c>
+      <c r="F166" s="11" t="s">
+        <v>85</v>
+      </c>
       <c r="G166" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H166" s="5">
-        <v>8</v>
+        <v>0.6</v>
       </c>
       <c r="I166" s="7"/>
       <c r="J166" s="9"/>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B167" s="4">
         <v>45609</v>
       </c>
       <c r="C167" s="11"/>
       <c r="D167" s="2" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F167" s="11"/>
-      <c r="G167" s="9">
-        <v>9</v>
-      </c>
-      <c r="H167" s="5">
-        <v>11</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F167" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G167" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H167" s="5"/>
       <c r="I167" s="7"/>
       <c r="J167" s="9"/>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K167" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
-        <v>340</v>
+        <v>193</v>
       </c>
       <c r="B168" s="4">
-        <v>45612</v>
-      </c>
-      <c r="C168" s="11"/>
-      <c r="D168" s="2" t="s">
-        <v>341</v>
+        <v>45607</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="D168" t="s">
+        <v>194</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="F168" s="11"/>
       <c r="G168" s="9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H168" s="5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I168" s="7"/>
       <c r="J168" s="9"/>
-      <c r="M168" s="11" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A169" s="11" t="s">
-        <v>273</v>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B169" s="4">
-        <v>45609</v>
-      </c>
-      <c r="C169" s="11"/>
+        <v>45584</v>
+      </c>
+      <c r="C169" s="4"/>
       <c r="D169" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F169" s="11" t="s">
         <v>35</v>
       </c>
       <c r="G169" s="9">
-        <v>13</v>
-      </c>
-      <c r="H169" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="H169" s="5">
+        <v>3</v>
+      </c>
       <c r="I169" s="7">
         <v>1</v>
       </c>
       <c r="J169" s="9"/>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M169" s="11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
-        <v>187</v>
+        <v>342</v>
       </c>
       <c r="B170" s="4">
-        <v>45607</v>
+        <v>45612</v>
       </c>
       <c r="C170" s="11"/>
-      <c r="D170" t="s">
-        <v>188</v>
-      </c>
-      <c r="F170" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="D170" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F170" s="11"/>
       <c r="G170" s="9">
         <v>3</v>
       </c>
       <c r="H170" s="5">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I170" s="7"/>
       <c r="J170" s="9"/>
-      <c r="L170" s="11" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M170" s="11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
-        <v>252</v>
+        <v>348</v>
       </c>
       <c r="B171" s="4">
-        <v>45609</v>
+        <v>45612</v>
       </c>
       <c r="C171" s="11"/>
-      <c r="D171" t="s">
-        <v>253</v>
+      <c r="D171" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>254</v>
+        <v>13</v>
       </c>
       <c r="F171" s="11"/>
       <c r="G171" s="9">
-        <v>2</v>
-      </c>
-      <c r="H171" s="5"/>
-      <c r="I171" s="7">
         <v>1</v>
       </c>
+      <c r="H171" s="5">
+        <v>3</v>
+      </c>
+      <c r="I171" s="7"/>
       <c r="J171" s="9"/>
-      <c r="L171" s="11" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M171" s="11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
-        <v>220</v>
+        <v>346</v>
       </c>
       <c r="B172" s="4">
-        <v>45608</v>
+        <v>45612</v>
       </c>
       <c r="C172" s="11"/>
       <c r="D172" s="2" t="s">
-        <v>221</v>
+        <v>347</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F172" s="11" t="s">
-        <v>33</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F172" s="11"/>
       <c r="G172" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H172" s="5">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="I172" s="7"/>
       <c r="J172" s="9"/>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M172" s="11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="B173" s="4">
-        <v>45586</v>
+        <v>45612</v>
       </c>
       <c r="C173" s="11"/>
       <c r="D173" s="2" t="s">
-        <v>61</v>
+        <v>345</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F173" s="11" t="s">
-        <v>33</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F173" s="11"/>
       <c r="G173" s="9">
         <v>1</v>
       </c>
       <c r="H173" s="5">
-        <v>0.75</v>
+        <v>8</v>
       </c>
       <c r="I173" s="7"/>
       <c r="J173" s="9"/>
-      <c r="M173" s="11" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
-        <v>371</v>
+        <v>264</v>
       </c>
       <c r="B174" s="4">
-        <v>45612</v>
+        <v>45609</v>
       </c>
       <c r="C174" s="11"/>
-      <c r="D174" t="s">
-        <v>372</v>
+      <c r="D174" s="2" t="s">
+        <v>265</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F174" s="11" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F174" s="11"/>
       <c r="G174" s="9">
-        <v>1</v>
-      </c>
-      <c r="H174" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="H174" s="5">
+        <v>11</v>
+      </c>
       <c r="I174" s="7"/>
       <c r="J174" s="9"/>
-      <c r="M174" s="11" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
-        <v>244</v>
+        <v>340</v>
       </c>
       <c r="B175" s="4">
-        <v>45608</v>
+        <v>45612</v>
       </c>
       <c r="C175" s="11"/>
       <c r="D175" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F175" s="11" t="s">
-        <v>33</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F175" s="11"/>
       <c r="G175" s="9">
-        <v>4</v>
-      </c>
-      <c r="H175" s="5"/>
-      <c r="I175" s="7">
         <v>1</v>
       </c>
-      <c r="J175" s="9">
-        <v>0</v>
-      </c>
-      <c r="L175" s="11" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H175" s="5">
+        <v>15</v>
+      </c>
+      <c r="I175" s="7"/>
+      <c r="J175" s="9"/>
+      <c r="M175" s="11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="B176" s="4">
-        <v>45629</v>
+        <v>45609</v>
       </c>
       <c r="C176" s="11"/>
       <c r="D176" s="2" t="s">
-        <v>241</v>
+        <v>7</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F176" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G176" s="9">
-        <v>21</v>
-      </c>
-      <c r="H176" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="I176" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="H176" s="5"/>
+      <c r="I176" s="7">
+        <v>1</v>
+      </c>
       <c r="J176" s="9"/>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
-        <v>383</v>
+        <v>187</v>
       </c>
       <c r="B177" s="4">
-        <v>45616</v>
+        <v>45607</v>
       </c>
       <c r="C177" s="11"/>
-      <c r="D177" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>68</v>
+      <c r="D177" t="s">
+        <v>188</v>
       </c>
       <c r="F177" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G177" s="9">
-        <v>4</v>
-      </c>
-      <c r="H177" s="5"/>
-      <c r="I177" s="7">
+        <v>3</v>
+      </c>
+      <c r="H177" s="5">
+        <v>5</v>
+      </c>
+      <c r="I177" s="7"/>
+      <c r="J177" s="9"/>
+      <c r="L177" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A178" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B178" s="4">
+        <v>45609</v>
+      </c>
+      <c r="C178" s="11"/>
+      <c r="D178" t="s">
+        <v>253</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F178" s="11"/>
+      <c r="G178" s="9">
+        <v>2</v>
+      </c>
+      <c r="H178" s="5"/>
+      <c r="I178" s="7">
         <v>1</v>
       </c>
-      <c r="M177" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="N177" s="11" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A178" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="B178" s="4">
-        <v>45616</v>
-      </c>
-      <c r="C178" s="11"/>
-      <c r="D178" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F178" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G178" s="9">
-        <v>3</v>
-      </c>
-      <c r="H178" s="5"/>
-      <c r="I178" s="7"/>
-      <c r="M178" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="N178" s="11" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J178" s="9"/>
+      <c r="L178" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
-        <v>390</v>
+        <v>220</v>
       </c>
       <c r="B179" s="4">
-        <v>45616</v>
+        <v>45608</v>
       </c>
       <c r="C179" s="11"/>
       <c r="D179" s="2" t="s">
-        <v>391</v>
+        <v>221</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="F179" s="11" t="s">
-        <v>160</v>
+        <v>33</v>
       </c>
       <c r="G179" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H179" s="5">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I179" s="7"/>
-      <c r="L179" s="11" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J179" s="9"/>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B180" s="4">
         <v>45616</v>
       </c>
       <c r="C180" s="11"/>
       <c r="D180" s="2" t="s">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>394</v>
+        <v>68</v>
       </c>
       <c r="F180" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="G180" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H180" s="5">
-        <v>0.2</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G180" s="9">
+        <v>3</v>
+      </c>
+      <c r="H180" s="5"/>
       <c r="I180" s="7"/>
-      <c r="L180" s="11" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M180" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="N180" s="11" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
-        <v>397</v>
+        <v>60</v>
       </c>
       <c r="B181" s="4">
-        <v>45629</v>
+        <v>45586</v>
       </c>
       <c r="C181" s="11"/>
       <c r="D181" s="2" t="s">
-        <v>398</v>
+        <v>61</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="F181" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G181" s="9">
+        <v>1</v>
+      </c>
+      <c r="H181" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="I181" s="7"/>
+      <c r="J181" s="9"/>
+      <c r="M181" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A182" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B182" s="4">
+        <v>45612</v>
+      </c>
+      <c r="C182" s="11"/>
+      <c r="D182" t="s">
+        <v>372</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F182" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G182" s="9">
+        <v>1</v>
+      </c>
+      <c r="H182" s="5"/>
+      <c r="I182" s="7"/>
+      <c r="J182" s="9"/>
+      <c r="M182" s="11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A183" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B183" s="4">
+        <v>45608</v>
+      </c>
+      <c r="C183" s="11"/>
+      <c r="D183" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F183" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G183" s="9">
+        <v>4</v>
+      </c>
+      <c r="H183" s="5"/>
+      <c r="I183" s="7">
+        <v>1</v>
+      </c>
+      <c r="J183" s="9">
+        <v>0</v>
+      </c>
+      <c r="L183" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A184" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="B184" s="4">
+        <v>45629</v>
+      </c>
+      <c r="C184" s="11"/>
+      <c r="D184" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F184" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G184" s="9">
         <v>10</v>
       </c>
-      <c r="H181" s="5">
+      <c r="H184" s="5">
         <v>0.2</v>
       </c>
-      <c r="I181" s="7"/>
-      <c r="L181" s="11" t="s">
+      <c r="I184" s="7"/>
+      <c r="L184" s="11" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A182" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="B182" s="4">
-        <v>45931</v>
-      </c>
-      <c r="C182" s="11"/>
-      <c r="D182" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="E182" s="2" t="s">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A185" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B185" s="4">
+        <v>45629</v>
+      </c>
+      <c r="C185" s="11"/>
+      <c r="D185" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F185" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G185" s="9">
+        <v>21</v>
+      </c>
+      <c r="H185" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="I185" s="7"/>
+      <c r="J185" s="9"/>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A186" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="B186" s="4">
+        <v>45973</v>
+      </c>
+      <c r="C186" s="11"/>
+      <c r="D186" t="s">
+        <v>410</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F182" s="11"/>
-      <c r="G182" s="9">
-        <v>10</v>
-      </c>
-      <c r="H182" s="5">
-        <v>0.35</v>
-      </c>
-      <c r="I182" s="7"/>
+      <c r="F186" s="11"/>
+      <c r="G186" s="9">
+        <v>2</v>
+      </c>
+      <c r="H186" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I186" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J177:K1048576 I2:J182 L177:L178" xr:uid="{B545C138-3061-481A-AA4C-5D47CBE799A5}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J177:K1048576 I2:J186 L177:L178" xr:uid="{B545C138-3061-481A-AA4C-5D47CBE799A5}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
